--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2482.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2482.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.267748598402707</v>
+        <v>1.719595074653625</v>
       </c>
       <c r="B1">
-        <v>3.407295247229712</v>
+        <v>1.744430541992188</v>
       </c>
       <c r="C1">
-        <v>4.487598993514249</v>
+        <v>4.880401134490967</v>
       </c>
       <c r="D1">
-        <v>3.589491621192771</v>
+        <v>1.208985686302185</v>
       </c>
       <c r="E1">
-        <v>1.523471757880721</v>
+        <v>0.637040376663208</v>
       </c>
     </row>
   </sheetData>
